--- a/analysis/photometry/stats/raw/train_stats.xlsx
+++ b/analysis/photometry/stats/raw/train_stats.xlsx
@@ -7,15 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="lick_stat" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="e_train_trace_anova" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="e_train_trace_stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="f_train_mean_anova" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="f_train_mean_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="g_mean_stat" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="h_n_train_bouts" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="h_peri_bout_anovas" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="h_peri_bout_model" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="e_train_trace_anova" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="e_train_trace_stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="f_train_mean_anova" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="f_train_mean_stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g_mean_stat" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,68 +450,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>p-value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>CS+ vs CS-</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.289852920406397</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06195654334495072</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -724,7 +658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1814,7 +1748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2211,7 +2145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2271,1389 +2205,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cs</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>nb</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15.14 ± 2.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17.43 ± 2.14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18.14 ± 2.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18.29 ± 2.24</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sum Sq</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Sq</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NumDF</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DenDF</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>F value</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;F)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.789775774373879</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.789775774373879</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14790.0940020992</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.122275564960475</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.07724948501992492</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>31.11138272257523</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.888922840321904</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.801792492528218</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.352424617737929</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.017494617594585</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>factor(cs)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0079674967651896</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0079674967651896</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14712.31065957584</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.008917103909340635</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9247685393687217</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>factor(day):bs(bins, df = 8, degree = 3)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>60.81939335138397</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.602424168922997</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14504.71008406687</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.508520087934514</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.271789980020267e-11</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>****</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>factor(day):factor(cs)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.311185712300157</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.311185712300157</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14608.20567108922</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.586644683736313</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1077900257588866</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3):factor(cs)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>27.30241875160444</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.412802343950555</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14252.43115983104</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.819557637727411</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0001702829936837495</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>factor(day):bs(bins, df = 8, degree = 3):factor(cs)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>32.23369420150607</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.029211775188259</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13922.77744800754</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.509433907656886</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.729149800512477e-05</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>****</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>t value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;|t|)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.06252067937502685</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08653681725965631</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.70028053451801</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7224749113135474</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4719694888838524</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.01284387717517454</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1125093505203203</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14395.94509188418</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1141583087607888</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9091138925541629</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.05196907440238589</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1689825812932195</v>
-      </c>
-      <c r="D4" t="n">
-        <v>165.2569982614658</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3075410140185328</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7588188473778055</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.1591323795223023</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1402876798037085</v>
-      </c>
-      <c r="D5" t="n">
-        <v>63.4760458405232</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1.134328971332061</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2609222211895845</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2129658725622984</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1408670145307306</v>
-      </c>
-      <c r="D6" t="n">
-        <v>84.76935642954214</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.511822148511844</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1342982801416055</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.3395196841107348</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1898950243780771</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.58045296702642</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1.78793354498198</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.09995776194881617</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)5</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.04680468659566818</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2005516333920048</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12.39190893796824</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.2333797327104397</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8192773096085848</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)6</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0620409002850948</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.166489337636795</v>
-      </c>
-      <c r="D9" t="n">
-        <v>31.29081182133545</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3726418830522361</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7119272655664057</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)7</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.5211565046457471</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1815062035400729</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21.7890654848699</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-2.871287561974081</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.008924712397173797</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)8</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.1169670349254271</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1183830490937184</v>
-      </c>
-      <c r="D11" t="n">
-        <v>132.326375163056</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.988038708420406</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3249368904990225</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.1228348026727121</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1180843559739149</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14226.96817129229</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-1.040229263729452</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2982510760957681</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)1</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2482840671822049</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2297820997617576</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13846.2867885071</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.08051962028213</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2799296741610123</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.08010067528474396</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1811874945620284</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14799.91352924924</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.4420872173235001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6584325536765909</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)3</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.1812216703046382</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1832121702663736</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14797.72456246265</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.9891355472791934</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.3226130006402462</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)4</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.2282982518870996</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1650159916520045</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13715.42134721355</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-1.383491682239794</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1665366727634406</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)5</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.05560051548416723</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1775467672068333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13306.74461400253</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.3131598302738757</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.754164143347255</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)6</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.04276561189412544</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1980875817242259</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12592.62569387324</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.2158924427360771</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.8290750847361332</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)7</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.2667272689655334</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2003891426235089</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12597.7386767523</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.331046510172762</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1831977955490804</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)8</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1026748442568271</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1588957513099809</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14171.16919135954</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.6461774050617908</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.5181749345042846</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2609917616730096</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1622775383198989</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14608.20567108922</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.608304910064106</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1077900257588866</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)1:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0684169921723756</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2411605630228542</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13522.17055381513</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.283698923716196</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.776645462997421</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)2:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.02319315640512603</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1901550810857319</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14759.77033058221</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1219696905951692</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9029246828884236</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)3:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.2676129049310457</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.192281077369793</v>
-      </c>
-      <c r="D24" t="n">
-        <v>14756.42034258556</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.391779724722341</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1640100887517088</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)4:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.05051618685698048</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1732870700403952</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13341.17765616965</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.291517346592591</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.7706602113075716</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)5:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.1880019209254891</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1863982857341414</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12837.23934936723</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.008603272208388</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.3131839476102327</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)6:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1310714570345862</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2079416120772715</v>
-      </c>
-      <c r="D27" t="n">
-        <v>11969.91736872906</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6303281759010304</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.5284919249354794</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)7:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.343513779289966</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.2104577320089932</v>
-      </c>
-      <c r="D28" t="n">
-        <v>11959.7924133611</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.632222185475642</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.10265901523423</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>bs(bins, df = 8, degree = 3)8:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.04221294017290207</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1667707626969446</v>
-      </c>
-      <c r="D29" t="n">
-        <v>13934.1244508037</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.2531195485962448</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.8001795671057919</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)1:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.1734476486322886</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.3314367515223226</v>
-      </c>
-      <c r="D30" t="n">
-        <v>14293.23775512857</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.5233205063579279</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.6007593457529081</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)2:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.03452512169575692</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.2613567407062273</v>
-      </c>
-      <c r="D31" t="n">
-        <v>14846.92628745477</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.132099603027129</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.8949072999500752</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)3:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.0583222825813348</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.2642749408777658</v>
-      </c>
-      <c r="D32" t="n">
-        <v>14845.95688560987</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.2206879032405514</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.8253384858216057</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)4:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.2862697895785765</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.2378241046175839</v>
-      </c>
-      <c r="D33" t="n">
-        <v>14190.6575749322</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-1.203703846752171</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.2287241436223238</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)5:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.5988219102254946</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.2559732344496162</v>
-      </c>
-      <c r="D34" t="n">
-        <v>13966.44013964902</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-2.339392677179934</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.01932913677935839</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)6:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.1633546703252252</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.2856284433629964</v>
-      </c>
-      <c r="D35" t="n">
-        <v>13503.76772413723</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-0.5719131764395846</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.5673903165564362</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)7:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.7890891194655696</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.2887495717161684</v>
-      </c>
-      <c r="D36" t="n">
-        <v>13474.25861101115</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-2.732780224662009</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.006288411069002535</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>factor(day)3:bs(bins, df = 8, degree = 3)8:factor(cs)+</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.4899523755261846</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2291785899158821</v>
-      </c>
-      <c r="D37" t="n">
-        <v>14482.62644177405</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-2.137862772024286</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0325445729122061</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>